--- a/src/assets/templateFiles/powerRecipt template.xlsx
+++ b/src/assets/templateFiles/powerRecipt template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\drive D\Moshtarin\Saadati_AsiaWat\SorceCode\Front\src\assets\templateFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B176FA62-BC10-4EC1-BEDB-06DDACD426F5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6DD72C7-4EAD-476D-87F8-7414C86844AF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3210" yWindow="3495" windowWidth="15375" windowHeight="7875" xr2:uid="{86B370E9-D8E9-477F-AB3B-B0B7C1815D35}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8CF16CE9-ACF0-497D-8AF5-2C69F1F9AE9C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,24 +25,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
+  <si>
+    <t>شناسه قبض</t>
+  </si>
+  <si>
+    <t>شناسه پرداخت</t>
+  </si>
+  <si>
+    <t>دوره</t>
+  </si>
+  <si>
+    <t>از تاریخ</t>
+  </si>
+  <si>
+    <t>تا تاریخ</t>
+  </si>
+  <si>
+    <t>میان باری</t>
+  </si>
+  <si>
+    <t>اوج بار</t>
+  </si>
+  <si>
+    <t>کم بار</t>
+  </si>
+  <si>
+    <t>اوج بار جمعه</t>
+  </si>
+  <si>
+    <t>راکتیو</t>
+  </si>
+  <si>
+    <t>قدرت قراردادی</t>
+  </si>
+  <si>
+    <t>قدرت محاسبه شده</t>
+  </si>
+  <si>
+    <t>عدد ماکسیمتر</t>
+  </si>
+  <si>
+    <t>قدرت مصرفی</t>
+  </si>
+  <si>
+    <t>مبلغ مصرف</t>
+  </si>
+  <si>
+    <t>بهای قدرت</t>
+  </si>
+  <si>
+    <t>بهای فصل</t>
+  </si>
+  <si>
+    <t>جریمه بدی مصرف</t>
+  </si>
+  <si>
+    <t>بهای برق دوره</t>
+  </si>
   <si>
     <t>مبلغ قابل پرداخت</t>
   </si>
   <si>
-    <t>تاریخ فعلی شمسی</t>
-  </si>
-  <si>
-    <t>تاریخ قبلی شمسی</t>
-  </si>
-  <si>
-    <t>شناسه پرداخت</t>
-  </si>
-  <si>
-    <t>دوره</t>
-  </si>
-  <si>
-    <t>مبلغ دوره</t>
+    <t>ضریب بدی مصرف</t>
   </si>
   <si>
     <t>1399/11/23</t>
@@ -51,65 +96,53 @@
     <t>1400/01/14</t>
   </si>
   <si>
+    <t>200,000 </t>
+  </si>
+  <si>
     <t>1399/09/22</t>
   </si>
   <si>
+    <t>242,000 </t>
+  </si>
+  <si>
     <t>1399/07/23</t>
   </si>
   <si>
+    <t>233,000 </t>
+  </si>
+  <si>
     <t>1399/05/25</t>
   </si>
   <si>
+    <t>215,000 </t>
+  </si>
+  <si>
     <t>1399/03/20</t>
   </si>
   <si>
+    <t>1,209,000 </t>
+  </si>
+  <si>
     <t>1399/01/30</t>
   </si>
   <si>
+    <t>250,000 </t>
+  </si>
+  <si>
     <t>1398/12/05</t>
   </si>
   <si>
-    <t>200,000 </t>
-  </si>
-  <si>
-    <t>242,000 </t>
-  </si>
-  <si>
-    <t>233,000 </t>
-  </si>
-  <si>
-    <t>215,000 </t>
-  </si>
-  <si>
-    <t>1,209,000 </t>
-  </si>
-  <si>
-    <t>250,000 </t>
-  </si>
-  <si>
     <t>213,000 </t>
-  </si>
-  <si>
-    <t>شناسه قبض</t>
-  </si>
-  <si>
-    <t>میزان مصرف میان باری</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -158,13 +191,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -174,7 +207,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="Ascending">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B246844-BA5D-434A-8FF2-265DCF351A8C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6428F0C5-E0F9-4768-BCC2-B7A72C11E8B6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -197,7 +230,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1828800" y="1143000"/>
+          <a:off x="7343775" y="952500"/>
           <a:ext cx="9525" cy="9525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -516,48 +549,86 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04FC1057-D29C-4FD4-87FC-D435B82E30F6}">
-  <dimension ref="A1:H8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BA019D6-41C4-4363-BA14-2F3C2F78FACD}">
+  <dimension ref="A1:U9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
       <c r="F1" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1140038005120</v>
       </c>
@@ -568,22 +639,61 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="F2">
         <v>253</v>
       </c>
       <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
         <v>200170</v>
       </c>
-      <c r="H2" t="s">
-        <v>14</v>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1140038005120</v>
       </c>
@@ -594,22 +704,61 @@
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="F3">
         <v>305</v>
       </c>
       <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
         <v>241279</v>
       </c>
-      <c r="H3" t="s">
-        <v>15</v>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1140038005120</v>
       </c>
@@ -620,22 +769,61 @@
         <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="F4">
         <v>295</v>
       </c>
       <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
         <v>233368</v>
       </c>
-      <c r="H4" t="s">
-        <v>16</v>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1140038005120</v>
       </c>
@@ -646,22 +834,61 @@
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E5" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="F5">
         <v>271</v>
       </c>
       <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
         <v>214755</v>
       </c>
-      <c r="H5" t="s">
-        <v>17</v>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1140038005120</v>
       </c>
@@ -672,22 +899,61 @@
         <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="F6">
         <v>736</v>
       </c>
       <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
         <v>1209540</v>
       </c>
-      <c r="H6" t="s">
-        <v>18</v>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1140038005120</v>
       </c>
@@ -698,22 +964,61 @@
         <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="F7">
         <v>317</v>
       </c>
       <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
         <v>249466</v>
       </c>
-      <c r="H7" t="s">
-        <v>19</v>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1140038005120</v>
       </c>
@@ -724,24 +1029,128 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="F8">
         <v>287</v>
       </c>
       <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
         <v>213421</v>
       </c>
-      <c r="H8" t="s">
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9">
+        <v>4</v>
+      </c>
+      <c r="F9">
+        <v>5</v>
+      </c>
+      <c r="G9">
+        <v>6</v>
+      </c>
+      <c r="H9">
+        <v>7</v>
+      </c>
+      <c r="I9">
+        <v>8</v>
+      </c>
+      <c r="J9">
+        <v>9</v>
+      </c>
+      <c r="K9">
+        <v>10</v>
+      </c>
+      <c r="L9">
+        <v>11</v>
+      </c>
+      <c r="M9">
+        <v>12</v>
+      </c>
+      <c r="N9">
+        <v>13</v>
+      </c>
+      <c r="O9">
+        <v>14</v>
+      </c>
+      <c r="P9">
+        <v>15</v>
+      </c>
+      <c r="Q9">
+        <v>16</v>
+      </c>
+      <c r="R9">
+        <v>17</v>
+      </c>
+      <c r="S9">
+        <v>18</v>
+      </c>
+      <c r="T9">
+        <v>19</v>
+      </c>
+      <c r="U9">
         <v>20</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/src/assets/templateFiles/powerRecipt template.xlsx
+++ b/src/assets/templateFiles/powerRecipt template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\drive D\Moshtarin\Saadati_AsiaWat\SorceCode\Front\src\assets\templateFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BillManagement\UI\src\assets\templateFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6DD72C7-4EAD-476D-87F8-7414C86844AF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BA509A2-55F6-41E4-BA29-78946A7364A5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8CF16CE9-ACF0-497D-8AF5-2C69F1F9AE9C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
   <si>
     <t>شناسه قبض</t>
   </si>
@@ -81,9 +81,6 @@
     <t>جریمه بدی مصرف</t>
   </si>
   <si>
-    <t>بهای برق دوره</t>
-  </si>
-  <si>
     <t>مبلغ قابل پرداخت</t>
   </si>
   <si>
@@ -96,43 +93,43 @@
     <t>1400/01/14</t>
   </si>
   <si>
-    <t>200,000 </t>
-  </si>
-  <si>
     <t>1399/09/22</t>
   </si>
   <si>
-    <t>242,000 </t>
-  </si>
-  <si>
     <t>1399/07/23</t>
   </si>
   <si>
-    <t>233,000 </t>
-  </si>
-  <si>
     <t>1399/05/25</t>
   </si>
   <si>
-    <t>215,000 </t>
-  </si>
-  <si>
     <t>1399/03/20</t>
   </si>
   <si>
-    <t>1,209,000 </t>
-  </si>
-  <si>
     <t>1399/01/30</t>
   </si>
   <si>
-    <t>250,000 </t>
-  </si>
-  <si>
     <t>1398/12/05</t>
   </si>
   <si>
-    <t>213,000 </t>
+    <t>200000 </t>
+  </si>
+  <si>
+    <t>242000 </t>
+  </si>
+  <si>
+    <t>233000 </t>
+  </si>
+  <si>
+    <t>215000 </t>
+  </si>
+  <si>
+    <t>1209000 </t>
+  </si>
+  <si>
+    <t>250000 </t>
+  </si>
+  <si>
+    <t>213000 </t>
   </si>
 </sst>
 </file>
@@ -191,13 +188,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>20</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -550,10 +547,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BA019D6-41C4-4363-BA14-2F3C2F78FACD}">
-  <dimension ref="A1:U9"/>
+  <dimension ref="A1:T8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+      <selection activeCell="T3" sqref="T3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -563,7 +560,7 @@
     <col min="13" max="13" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -604,7 +601,7 @@
         <v>13</v>
       </c>
       <c r="N1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O1" t="s">
         <v>12</v>
@@ -624,11 +621,8 @@
       <c r="T1" t="s">
         <v>18</v>
       </c>
-      <c r="U1" t="s">
-        <v>19</v>
-      </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1140038005120</v>
       </c>
@@ -639,10 +633,10 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
         <v>21</v>
-      </c>
-      <c r="E2" t="s">
-        <v>22</v>
       </c>
       <c r="F2">
         <v>253</v>
@@ -686,14 +680,11 @@
       <c r="S2">
         <v>0</v>
       </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
-      <c r="U2" t="s">
-        <v>23</v>
+      <c r="T2" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1140038005120</v>
       </c>
@@ -704,10 +695,10 @@
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F3">
         <v>305</v>
@@ -751,14 +742,11 @@
       <c r="S3">
         <v>0</v>
       </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
-      <c r="U3" t="s">
-        <v>25</v>
+      <c r="T3" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1140038005120</v>
       </c>
@@ -769,10 +757,10 @@
         <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F4">
         <v>295</v>
@@ -816,14 +804,11 @@
       <c r="S4">
         <v>0</v>
       </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
-      <c r="U4" t="s">
-        <v>27</v>
+      <c r="T4" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1140038005120</v>
       </c>
@@ -834,10 +819,10 @@
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F5">
         <v>271</v>
@@ -881,14 +866,11 @@
       <c r="S5">
         <v>0</v>
       </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
-      <c r="U5" t="s">
-        <v>29</v>
+      <c r="T5" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1140038005120</v>
       </c>
@@ -899,10 +881,10 @@
         <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F6">
         <v>736</v>
@@ -946,14 +928,11 @@
       <c r="S6">
         <v>0</v>
       </c>
-      <c r="T6">
-        <v>0</v>
-      </c>
-      <c r="U6" t="s">
-        <v>31</v>
+      <c r="T6" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1140038005120</v>
       </c>
@@ -964,10 +943,10 @@
         <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E7" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F7">
         <v>317</v>
@@ -1011,14 +990,11 @@
       <c r="S7">
         <v>0</v>
       </c>
-      <c r="T7">
-        <v>0</v>
-      </c>
-      <c r="U7" t="s">
+      <c r="T7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1140038005120</v>
       </c>
@@ -1029,10 +1005,10 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E8" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F8">
         <v>287</v>
@@ -1076,76 +1052,8 @@
       <c r="S8">
         <v>0</v>
       </c>
-      <c r="T8">
-        <v>0</v>
-      </c>
-      <c r="U8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>0</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>2</v>
-      </c>
-      <c r="D9">
-        <v>3</v>
-      </c>
-      <c r="E9">
-        <v>4</v>
-      </c>
-      <c r="F9">
-        <v>5</v>
-      </c>
-      <c r="G9">
-        <v>6</v>
-      </c>
-      <c r="H9">
-        <v>7</v>
-      </c>
-      <c r="I9">
-        <v>8</v>
-      </c>
-      <c r="J9">
-        <v>9</v>
-      </c>
-      <c r="K9">
-        <v>10</v>
-      </c>
-      <c r="L9">
-        <v>11</v>
-      </c>
-      <c r="M9">
-        <v>12</v>
-      </c>
-      <c r="N9">
-        <v>13</v>
-      </c>
-      <c r="O9">
-        <v>14</v>
-      </c>
-      <c r="P9">
-        <v>15</v>
-      </c>
-      <c r="Q9">
-        <v>16</v>
-      </c>
-      <c r="R9">
-        <v>17</v>
-      </c>
-      <c r="S9">
-        <v>18</v>
-      </c>
-      <c r="T9">
-        <v>19</v>
-      </c>
-      <c r="U9">
-        <v>20</v>
+      <c r="T8" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
